--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb2-Grm1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb2-Grm1.xlsx
@@ -543,28 +543,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.910369</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H2">
-        <v>95.73110699999999</v>
+        <v>112.340305</v>
       </c>
       <c r="I2">
-        <v>0.5799781744613789</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J2">
-        <v>0.579978174461379</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6038640000000001</v>
+        <v>1.646038333333333</v>
       </c>
       <c r="N2">
-        <v>1.811592</v>
+        <v>4.938115000000001</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>19.269523065816</v>
+        <v>61.63881613611944</v>
       </c>
       <c r="R2">
-        <v>173.425707592344</v>
+        <v>554.7493452250751</v>
       </c>
       <c r="S2">
-        <v>0.5799781744613789</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="T2">
-        <v>0.579978174461379</v>
+        <v>0.6029245723174423</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,22 +611,22 @@
         <v>34.261431</v>
       </c>
       <c r="I3">
-        <v>0.2075697527013293</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J3">
-        <v>0.2075697527013294</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.6038640000000001</v>
+        <v>1.646038333333333</v>
       </c>
       <c r="N3">
-        <v>1.811592</v>
+        <v>4.938115000000001</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -635,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>6.896414923128001</v>
+        <v>18.79854292695167</v>
       </c>
       <c r="R3">
-        <v>62.067734308152</v>
+        <v>169.186886342565</v>
       </c>
       <c r="S3">
-        <v>0.2075697527013293</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="T3">
-        <v>0.2075697527013294</v>
+        <v>0.1838793176915316</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,28 +667,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6836493333333333</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H4">
-        <v>2.050948</v>
+        <v>3.733837</v>
       </c>
       <c r="I4">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J4">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6038640000000001</v>
+        <v>1.646038333333333</v>
       </c>
       <c r="N4">
-        <v>1.811592</v>
+        <v>4.938115000000001</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.4128312210240001</v>
+        <v>2.048679610806111</v>
       </c>
       <c r="R4">
-        <v>3.715480989216</v>
+        <v>18.438116497255</v>
       </c>
       <c r="S4">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="T4">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,28 +729,28 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.899486</v>
+        <v>10.03858766666667</v>
       </c>
       <c r="H5">
-        <v>29.698458</v>
+        <v>30.115763</v>
       </c>
       <c r="I5">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="J5">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6038640000000001</v>
+        <v>1.646038333333333</v>
       </c>
       <c r="N5">
-        <v>1.811592</v>
+        <v>4.938115000000001</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>5.977943213904</v>
+        <v>16.52390011186056</v>
       </c>
       <c r="R5">
-        <v>53.801488925136</v>
+        <v>148.715101006745</v>
       </c>
       <c r="S5">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="T5">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,28 +791,28 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6568320000000001</v>
+        <v>1.327177333333333</v>
       </c>
       <c r="H6">
-        <v>1.970496</v>
+        <v>3.981532</v>
       </c>
       <c r="I6">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="J6">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6038640000000001</v>
+        <v>1.646038333333333</v>
       </c>
       <c r="N6">
-        <v>1.811592</v>
+        <v>4.938115000000001</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.3966371988480001</v>
+        <v>2.184584765797778</v>
       </c>
       <c r="R6">
-        <v>3.569734789632001</v>
+        <v>19.66126289218</v>
       </c>
       <c r="S6">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="T6">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,28 +853,28 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4491346666666667</v>
+        <v>0.630923</v>
       </c>
       <c r="H7">
-        <v>1.347404</v>
+        <v>1.892769</v>
       </c>
       <c r="I7">
-        <v>0.00816312415756312</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="J7">
-        <v>0.00816312415756312</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6038640000000001</v>
+        <v>1.646038333333333</v>
       </c>
       <c r="N7">
-        <v>1.811592</v>
+        <v>4.938115000000001</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.271216256352</v>
+        <v>1.038523443381667</v>
       </c>
       <c r="R7">
-        <v>2.440946307168</v>
+        <v>9.346710990435001</v>
       </c>
       <c r="S7">
-        <v>0.00816312415756312</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="T7">
-        <v>0.00816312415756312</v>
+        <v>0.01015839274978569</v>
       </c>
     </row>
   </sheetData>
